--- a/results/mp/logistic/home-spam/confidence/84/stop-words-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/84/stop-words-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,18 +46,18 @@
     <t>returned</t>
   </si>
   <si>
+    <t>stopped</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>useless</t>
   </si>
   <si>
-    <t>stopped</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
@@ -67,97 +67,139 @@
     <t>thin</t>
   </si>
   <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
     <t>maybe</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>difficult</t>
+    <t>months</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>cheap</t>
   </si>
   <si>
     <t>grind</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>months</t>
+    <t>filter</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>filter</t>
+    <t>lid</t>
   </si>
   <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>lid</t>
-  </si>
-  <si>
-    <t>received</t>
+    <t>after</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>off</t>
+  </si>
+  <si>
     <t>back</t>
   </si>
   <si>
-    <t>machine</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>hard</t>
+    <t>doesn</t>
+  </si>
+  <si>
+    <t>but</t>
+  </si>
+  <si>
+    <t>then</t>
+  </si>
+  <si>
+    <t>did</t>
+  </si>
+  <si>
+    <t>t</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>does</t>
+  </si>
+  <si>
+    <t>was</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>use</t>
+    <t>'</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>and</t>
   </si>
   <si>
     <t>negative</t>
@@ -184,9 +226,6 @@
     <t>pleased</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
@@ -194,6 +233,9 @@
   </si>
   <si>
     <t>easy</t>
+  </si>
+  <si>
+    <t>!</t>
   </si>
   <si>
     <t>positive</t>
@@ -554,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,10 +604,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -623,13 +665,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9292035398230089</v>
+        <v>0.9469026548672567</v>
       </c>
       <c r="C3">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D3">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -641,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="K3">
-        <v>0.8203125</v>
+        <v>0.8125</v>
       </c>
       <c r="L3">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M3">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -665,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -694,16 +736,16 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="K4">
-        <v>0.8064516129032258</v>
+        <v>0.7634408602150538</v>
       </c>
       <c r="L4">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M4">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -715,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -723,13 +765,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="C5">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D5">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -741,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K5">
-        <v>0.7826086956521739</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="L5">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M5">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -765,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -773,13 +815,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8867924528301887</v>
+        <v>0.86</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -791,19 +833,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="K6">
-        <v>0.7016949152542373</v>
+        <v>0.7050847457627119</v>
       </c>
       <c r="L6">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M6">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -815,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -823,13 +865,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.88</v>
+        <v>0.8305084745762712</v>
       </c>
       <c r="C7">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="D7">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -841,19 +883,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="K7">
-        <v>0.6904024767801857</v>
+        <v>0.5913312693498453</v>
       </c>
       <c r="L7">
-        <v>446</v>
+        <v>382</v>
       </c>
       <c r="M7">
-        <v>446</v>
+        <v>382</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -865,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>200</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -873,13 +915,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8728813559322034</v>
+        <v>0.825</v>
       </c>
       <c r="C8">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -891,19 +933,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="K8">
-        <v>0.5497835497835498</v>
+        <v>0.4935064935064935</v>
       </c>
       <c r="L8">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="M8">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -915,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -923,13 +965,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8054054054054054</v>
+        <v>0.745945945945946</v>
       </c>
       <c r="C9">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D9">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -941,31 +983,31 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="K9">
-        <v>0.5194805194805194</v>
+        <v>0.4805194805194805</v>
       </c>
       <c r="L9">
+        <v>37</v>
+      </c>
+      <c r="M9">
+        <v>37</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>40</v>
-      </c>
-      <c r="M9">
-        <v>40</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -973,13 +1015,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7954545454545454</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="C10">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -991,19 +1033,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="K10">
-        <v>0.4342105263157895</v>
+        <v>0.2342857142857143</v>
       </c>
       <c r="L10">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M10">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1015,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>43</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1023,13 +1065,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7945205479452054</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="C11">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D11">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1041,19 +1083,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="K11">
-        <v>0.3485714285714286</v>
+        <v>0.1613162118780096</v>
       </c>
       <c r="L11">
-        <v>61</v>
+        <v>201</v>
       </c>
       <c r="M11">
-        <v>61</v>
+        <v>201</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1065,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>114</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1073,13 +1115,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7735849056603774</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="C12">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D12">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1091,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="K12">
-        <v>0.2158908507223114</v>
+        <v>0.05205479452054795</v>
       </c>
       <c r="L12">
-        <v>269</v>
+        <v>38</v>
       </c>
       <c r="M12">
-        <v>269</v>
+        <v>38</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1115,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>977</v>
+        <v>692</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1123,13 +1165,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7692307692307693</v>
+        <v>0.6730769230769231</v>
       </c>
       <c r="C13">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D13">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1141,31 +1183,31 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="K13">
-        <v>0.1068493150684932</v>
+        <v>0.01830443159922929</v>
       </c>
       <c r="L13">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="M13">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>652</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1173,13 +1215,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7205882352941176</v>
+        <v>0.5994708994708995</v>
       </c>
       <c r="C14">
-        <v>49</v>
+        <v>1133</v>
       </c>
       <c r="D14">
-        <v>49</v>
+        <v>1133</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1191,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>19</v>
+        <v>757</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1199,13 +1241,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.704225352112676</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="C15">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D15">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1217,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1225,13 +1267,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.674074074074074</v>
+        <v>0.5566037735849056</v>
       </c>
       <c r="C16">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="D16">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1243,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1251,13 +1293,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.660377358490566</v>
+        <v>0.5512820512820513</v>
       </c>
       <c r="C17">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="D17">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1269,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1277,13 +1319,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6555555555555556</v>
+        <v>0.5271317829457365</v>
       </c>
       <c r="C18">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D18">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1295,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1303,13 +1345,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6410256410256411</v>
+        <v>0.5037037037037037</v>
       </c>
       <c r="C19">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="D19">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1321,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1329,13 +1371,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5968992248062015</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="C20">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="D20">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1347,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>52</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1355,13 +1397,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5897435897435898</v>
+        <v>0.4788732394366197</v>
       </c>
       <c r="C21">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D21">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1373,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1381,13 +1423,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5747126436781609</v>
+        <v>0.4367816091954023</v>
       </c>
       <c r="C22">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D22">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1399,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1407,13 +1449,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5743243243243243</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C23">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="D23">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1425,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1433,13 +1475,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5309734513274337</v>
+        <v>0.4070796460176991</v>
       </c>
       <c r="C24">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D24">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1451,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1459,13 +1501,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5288461538461539</v>
+        <v>0.3918918918918919</v>
       </c>
       <c r="C25">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D25">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1477,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>49</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1485,13 +1527,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4077669902912621</v>
+        <v>0.3702702702702703</v>
       </c>
       <c r="C26">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="D26">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1503,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>61</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1511,13 +1553,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3846153846153846</v>
+        <v>0.3106796116504854</v>
       </c>
       <c r="C27">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D27">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1529,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>96</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1537,13 +1579,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3711340206185567</v>
+        <v>0.2849162011173184</v>
       </c>
       <c r="C28">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D28">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1555,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>61</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1563,13 +1605,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3687150837988827</v>
+        <v>0.2788104089219331</v>
       </c>
       <c r="C29">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D29">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1581,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>113</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1589,13 +1631,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.34</v>
+        <v>0.2628205128205128</v>
       </c>
       <c r="C30">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D30">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1607,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>66</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1615,13 +1657,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.26</v>
+        <v>0.2622222222222222</v>
       </c>
       <c r="C31">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D31">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1633,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>148</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1641,13 +1683,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.246031746031746</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="C32">
-        <v>31</v>
+        <v>351</v>
       </c>
       <c r="D32">
-        <v>31</v>
+        <v>351</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1659,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>95</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1667,13 +1709,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2142857142857143</v>
+        <v>0.2419354838709677</v>
       </c>
       <c r="C33">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D33">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1685,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>165</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1693,13 +1735,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2075471698113208</v>
+        <v>0.1769230769230769</v>
       </c>
       <c r="C34">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D34">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1711,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>294</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1719,13 +1761,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2</v>
+        <v>0.1386666666666667</v>
       </c>
       <c r="C35">
-        <v>29</v>
+        <v>156</v>
       </c>
       <c r="D35">
-        <v>29</v>
+        <v>156</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1737,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>116</v>
+        <v>969</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1745,13 +1787,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1986754966887417</v>
+        <v>0.1266846361185984</v>
       </c>
       <c r="C36">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D36">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1763,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>121</v>
+        <v>324</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1771,13 +1813,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1612903225806452</v>
+        <v>0.1122448979591837</v>
       </c>
       <c r="C37">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D37">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1789,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>156</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1797,13 +1839,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1394557823129252</v>
+        <v>0.06367432150313153</v>
       </c>
       <c r="C38">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D38">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1815,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>253</v>
+        <v>897</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1823,13 +1865,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1224489795918367</v>
+        <v>0.06343283582089553</v>
       </c>
       <c r="C39">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="D39">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1841,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>645</v>
+        <v>502</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1849,13 +1891,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1070234113712375</v>
+        <v>0.05491105955143078</v>
       </c>
       <c r="C40">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="D40">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1867,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>267</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1875,25 +1917,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0783289817232376</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="C41">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="D41">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E41">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>706</v>
+        <v>728</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1901,25 +1943,389 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.02601908065915004</v>
+        <v>0.04897959183673469</v>
       </c>
       <c r="C42">
+        <v>36</v>
+      </c>
+      <c r="D42">
+        <v>36</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.04416809605488851</v>
+      </c>
+      <c r="C43">
+        <v>103</v>
+      </c>
+      <c r="D43">
+        <v>103</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.0392662219526986</v>
+      </c>
+      <c r="C44">
+        <v>259</v>
+      </c>
+      <c r="D44">
+        <v>263</v>
+      </c>
+      <c r="E44">
+        <v>0.02</v>
+      </c>
+      <c r="F44">
+        <v>0.98</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>6337</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.03873552983081033</v>
+      </c>
+      <c r="C45">
+        <v>261</v>
+      </c>
+      <c r="D45">
+        <v>268</v>
+      </c>
+      <c r="E45">
+        <v>0.03</v>
+      </c>
+      <c r="F45">
+        <v>0.97</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>6477</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.03800140745953554</v>
+      </c>
+      <c r="C46">
+        <v>54</v>
+      </c>
+      <c r="D46">
+        <v>55</v>
+      </c>
+      <c r="E46">
+        <v>0.02</v>
+      </c>
+      <c r="F46">
+        <v>0.98</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.02941879933030376</v>
+      </c>
+      <c r="C47">
+        <v>123</v>
+      </c>
+      <c r="D47">
+        <v>125</v>
+      </c>
+      <c r="E47">
+        <v>0.02</v>
+      </c>
+      <c r="F47">
+        <v>0.98</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>4058</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>0.02883317261330762</v>
+      </c>
+      <c r="C48">
+        <v>299</v>
+      </c>
+      <c r="D48">
+        <v>311</v>
+      </c>
+      <c r="E48">
+        <v>0.04</v>
+      </c>
+      <c r="F48">
+        <v>0.96</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>10071</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>0.02792022792022792</v>
+      </c>
+      <c r="C49">
+        <v>49</v>
+      </c>
+      <c r="D49">
+        <v>49</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0.02143041569842499</v>
+      </c>
+      <c r="C50">
+        <v>83</v>
+      </c>
+      <c r="D50">
+        <v>88</v>
+      </c>
+      <c r="E50">
+        <v>0.06</v>
+      </c>
+      <c r="F50">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>0.01914823374050842</v>
+      </c>
+      <c r="C51">
+        <v>58</v>
+      </c>
+      <c r="D51">
+        <v>59</v>
+      </c>
+      <c r="E51">
+        <v>0.02</v>
+      </c>
+      <c r="F51">
+        <v>0.98</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>0.01878538342768914</v>
+      </c>
+      <c r="C52">
+        <v>73</v>
+      </c>
+      <c r="D52">
+        <v>74</v>
+      </c>
+      <c r="E52">
+        <v>0.01</v>
+      </c>
+      <c r="F52">
+        <v>0.99</v>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>3813</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>0.0160377358490566</v>
+      </c>
+      <c r="C53">
+        <v>51</v>
+      </c>
+      <c r="D53">
+        <v>56</v>
+      </c>
+      <c r="E53">
+        <v>0.09</v>
+      </c>
+      <c r="F53">
+        <v>0.91</v>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0.01387114436941048</v>
+      </c>
+      <c r="C54">
+        <v>76</v>
+      </c>
+      <c r="D54">
+        <v>86</v>
+      </c>
+      <c r="E54">
+        <v>0.12</v>
+      </c>
+      <c r="F54">
+        <v>0.88</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>0.01099303774276292</v>
+      </c>
+      <c r="C55">
         <v>30</v>
       </c>
-      <c r="D42">
-        <v>34</v>
-      </c>
-      <c r="E42">
-        <v>0.12</v>
-      </c>
-      <c r="F42">
-        <v>0.88</v>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>1123</v>
+      <c r="D55">
+        <v>31</v>
+      </c>
+      <c r="E55">
+        <v>0.03</v>
+      </c>
+      <c r="F55">
+        <v>0.97</v>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>0.008323699421965317</v>
+      </c>
+      <c r="C56">
+        <v>36</v>
+      </c>
+      <c r="D56">
+        <v>49</v>
+      </c>
+      <c r="E56">
+        <v>0.27</v>
+      </c>
+      <c r="F56">
+        <v>0.73</v>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>4289</v>
       </c>
     </row>
   </sheetData>
